--- a/Data/Season2/Encounters - Quadrats (Responses).xlsx
+++ b/Data/Season2/Encounters - Quadrats (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="53">
   <si>
     <t>Timestamp</t>
   </si>
@@ -156,6 +156,36 @@
   <si>
     <t>plants thick</t>
   </si>
+  <si>
+    <t>Very silty, hard to see anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't count tiny ones </t>
+  </si>
+  <si>
+    <t>Very silty, hard to see</t>
+  </si>
+  <si>
+    <t>lots of juveniles</t>
+  </si>
+  <si>
+    <t>Dense vegetation</t>
+  </si>
+  <si>
+    <t>Lots of fish eggs</t>
+  </si>
+  <si>
+    <t>Couldn't see anything, this zero could be totally inaccurate</t>
+  </si>
+  <si>
+    <t>Couldn't see anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shellfish, tiny dead shells </t>
+  </si>
+  <si>
+    <t>Shellfish, Tiny dead shells</t>
+  </si>
 </sst>
 </file>
 
@@ -21992,6 +22022,3193 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>43334.79373842593</v>
+      </c>
+      <c r="B824" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E824" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F824" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G824" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H824" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J824" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>43334.79395574074</v>
+      </c>
+      <c r="B825" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E825" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F825" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G825" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J825" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>43334.79413469907</v>
+      </c>
+      <c r="B826" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E826" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F826" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G826" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J826" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>43334.794837685185</v>
+      </c>
+      <c r="B827" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E827" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F827" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G827" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H827" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J827" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>43334.79499609953</v>
+      </c>
+      <c r="B828" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E828" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F828" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G828" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J828" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>43334.79520690972</v>
+      </c>
+      <c r="B829" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E829" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F829" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G829" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H829" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J829" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>43334.79538858796</v>
+      </c>
+      <c r="B830" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E830" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F830" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G830" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J830" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>43334.79558553241</v>
+      </c>
+      <c r="B831" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E831" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F831" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G831" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H831" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J831" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>43334.79613390046</v>
+      </c>
+      <c r="B832" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E832" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F832" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G832" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H832" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J832" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>43334.79641173611</v>
+      </c>
+      <c r="B833" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E833" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F833" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G833" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H833" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J833" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>43334.79678275463</v>
+      </c>
+      <c r="B834" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E834" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F834" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G834" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J834" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>43334.79699454861</v>
+      </c>
+      <c r="B835" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E835" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F835" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G835" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J835" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>43334.79715912037</v>
+      </c>
+      <c r="B836" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E836" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F836" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G836" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J836" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>43334.79735875</v>
+      </c>
+      <c r="B837" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E837" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F837" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G837" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H837" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J837" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>43334.79766361111</v>
+      </c>
+      <c r="B838" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E838" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F838" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G838" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H838" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J838" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>43334.79799371528</v>
+      </c>
+      <c r="B839" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E839" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F839" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G839" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H839" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J839" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>43334.798173125004</v>
+      </c>
+      <c r="B840" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E840" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F840" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G840" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H840" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J840" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>43334.798656875</v>
+      </c>
+      <c r="B841" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E841" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F841" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G841" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J841" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>43334.79883109954</v>
+      </c>
+      <c r="B842" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E842" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F842" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G842" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J842" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>43334.79903811343</v>
+      </c>
+      <c r="B843" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E843" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F843" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G843" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H843" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J843" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>43334.79920297454</v>
+      </c>
+      <c r="B844" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E844" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F844" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G844" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J844" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>43334.799976828705</v>
+      </c>
+      <c r="B845" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E845" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F845" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G845" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J845" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2">
+        <v>43334.800223136575</v>
+      </c>
+      <c r="B846" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E846" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F846" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G846" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J846" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2">
+        <v>43334.80053490741</v>
+      </c>
+      <c r="B847" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E847" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F847" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G847" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J847" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2">
+        <v>43334.80079328704</v>
+      </c>
+      <c r="B848" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E848" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F848" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G848" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J848" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2">
+        <v>43334.80160180556</v>
+      </c>
+      <c r="B849" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E849" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F849" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G849" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H849" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J849" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2">
+        <v>43334.801833136575</v>
+      </c>
+      <c r="B850" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E850" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F850" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G850" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H850" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J850" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2">
+        <v>43334.802394583334</v>
+      </c>
+      <c r="B851" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E851" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F851" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G851" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H851" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J851" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2">
+        <v>43334.8026143287</v>
+      </c>
+      <c r="B852" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E852" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F852" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G852" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H852" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J852" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2">
+        <v>43334.804309872685</v>
+      </c>
+      <c r="B853" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E853" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F853" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G853" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J853" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2">
+        <v>43334.80527251157</v>
+      </c>
+      <c r="B854" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E854" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F854" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G854" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J854" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2">
+        <v>43334.80545539352</v>
+      </c>
+      <c r="B855" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E855" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F855" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G855" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J855" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2">
+        <v>43334.805655752316</v>
+      </c>
+      <c r="B856" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E856" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F856" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G856" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J856" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2">
+        <v>43334.80586184028</v>
+      </c>
+      <c r="B857" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E857" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F857" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G857" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H857" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J857" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2">
+        <v>43334.806899664356</v>
+      </c>
+      <c r="B858" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E858" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F858" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G858" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H858" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J858" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2">
+        <v>43334.80717947916</v>
+      </c>
+      <c r="B859" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E859" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F859" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G859" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I859" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J859" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2">
+        <v>43334.80780966435</v>
+      </c>
+      <c r="B860" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E860" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F860" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G860" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H860" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I860" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J860" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2">
+        <v>43334.808034745365</v>
+      </c>
+      <c r="B861" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E861" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F861" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G861" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H861" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I861" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J861" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2">
+        <v>43334.80887194445</v>
+      </c>
+      <c r="B862" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E862" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F862" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G862" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H862" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I862" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J862" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2">
+        <v>43334.80906113426</v>
+      </c>
+      <c r="B863" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E863" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F863" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G863" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H863" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I863" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J863" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2">
+        <v>43334.809273287035</v>
+      </c>
+      <c r="B864" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E864" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F864" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G864" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H864" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I864" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J864" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2">
+        <v>43334.809457337964</v>
+      </c>
+      <c r="B865" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E865" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F865" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G865" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I865" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J865" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2">
+        <v>43334.80965953704</v>
+      </c>
+      <c r="B866" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E866" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F866" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G866" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H866" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I866" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J866" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2">
+        <v>43334.8098684375</v>
+      </c>
+      <c r="B867" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E867" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F867" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G867" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H867" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J867" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2">
+        <v>43334.81008135417</v>
+      </c>
+      <c r="B868" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E868" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F868" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G868" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H868" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J868" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2">
+        <v>43334.81143371528</v>
+      </c>
+      <c r="B869" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E869" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F869" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G869" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H869" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I869" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J869" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2">
+        <v>43334.81185907408</v>
+      </c>
+      <c r="B870" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E870" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F870" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G870" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="H870" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I870" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J870" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2">
+        <v>43334.81217346065</v>
+      </c>
+      <c r="B871" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E871" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F871" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G871" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H871" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J871" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2">
+        <v>43334.812442118055</v>
+      </c>
+      <c r="B872" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E872" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F872" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G872" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H872" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J872" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2">
+        <v>43334.812713356485</v>
+      </c>
+      <c r="B873" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E873" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F873" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G873" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H873" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J873" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2">
+        <v>43334.812955127316</v>
+      </c>
+      <c r="B874" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E874" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F874" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G874" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H874" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J874" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2">
+        <v>43334.81315357639</v>
+      </c>
+      <c r="B875" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E875" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F875" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G875" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J875" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2">
+        <v>43334.81342990741</v>
+      </c>
+      <c r="B876" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E876" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F876" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G876" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J876" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2">
+        <v>43334.813793912035</v>
+      </c>
+      <c r="B877" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E877" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F877" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G877" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H877" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J877" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2">
+        <v>43334.81489016204</v>
+      </c>
+      <c r="B878" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E878" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F878" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G878" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J878" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2">
+        <v>43334.81508847223</v>
+      </c>
+      <c r="B879" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E879" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F879" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G879" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H879" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I879" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J879" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2">
+        <v>43334.81532844907</v>
+      </c>
+      <c r="B880" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E880" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F880" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G880" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I880" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J880" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2">
+        <v>43334.81555024306</v>
+      </c>
+      <c r="B881" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E881" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F881" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G881" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H881" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J881" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2">
+        <v>43334.81577828704</v>
+      </c>
+      <c r="B882" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E882" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F882" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G882" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H882" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I882" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J882" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2">
+        <v>43334.81622530092</v>
+      </c>
+      <c r="B883" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E883" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F883" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G883" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I883" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J883" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2">
+        <v>43334.81651289352</v>
+      </c>
+      <c r="B884" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E884" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F884" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G884" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H884" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I884" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J884" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2">
+        <v>43334.81669790509</v>
+      </c>
+      <c r="B885" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E885" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F885" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G885" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J885" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2">
+        <v>43334.81691738426</v>
+      </c>
+      <c r="B886" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E886" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F886" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G886" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H886" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J886" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2">
+        <v>43334.81710209491</v>
+      </c>
+      <c r="B887" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E887" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F887" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G887" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J887" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2">
+        <v>43334.81729076389</v>
+      </c>
+      <c r="B888" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E888" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F888" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G888" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J888" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2">
+        <v>43334.81749725694</v>
+      </c>
+      <c r="B889" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E889" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F889" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G889" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J889" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2">
+        <v>43334.81766767361</v>
+      </c>
+      <c r="B890" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E890" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F890" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G890" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H890" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J890" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2">
+        <v>43334.81788928241</v>
+      </c>
+      <c r="B891" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E891" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F891" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G891" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J891" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2">
+        <v>43334.81811771991</v>
+      </c>
+      <c r="B892" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E892" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F892" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G892" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J892" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2">
+        <v>43334.81828474537</v>
+      </c>
+      <c r="B893" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E893" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F893" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G893" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J893" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2">
+        <v>43334.81843251157</v>
+      </c>
+      <c r="B894" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E894" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F894" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G894" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J894" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2">
+        <v>43334.81861993056</v>
+      </c>
+      <c r="B895" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E895" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F895" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G895" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J895" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2">
+        <v>43334.81886939815</v>
+      </c>
+      <c r="B896" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E896" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F896" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G896" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H896" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J896" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2">
+        <v>43334.81906512732</v>
+      </c>
+      <c r="B897" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E897" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F897" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G897" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H897" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J897" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2">
+        <v>43334.81927537037</v>
+      </c>
+      <c r="B898" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E898" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F898" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G898" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H898" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J898" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2">
+        <v>43334.81948721065</v>
+      </c>
+      <c r="B899" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E899" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F899" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G899" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="H899" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J899" s="1">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2">
+        <v>43334.81980203703</v>
+      </c>
+      <c r="B900" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E900" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F900" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G900" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H900" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I900" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J900" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2">
+        <v>43334.82008659722</v>
+      </c>
+      <c r="B901" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E901" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F901" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G901" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H901" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J901" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2">
+        <v>43334.8203035301</v>
+      </c>
+      <c r="B902" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E902" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F902" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G902" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J902" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="2">
+        <v>43334.82050623842</v>
+      </c>
+      <c r="B903" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E903" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F903" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G903" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J903" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2">
+        <v>43334.82073309028</v>
+      </c>
+      <c r="B904" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E904" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F904" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G904" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J904" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2">
+        <v>43334.821106400464</v>
+      </c>
+      <c r="B905" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E905" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F905" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G905" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J905" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2">
+        <v>43334.82138951389</v>
+      </c>
+      <c r="B906" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E906" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F906" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G906" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H906" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J906" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="2">
+        <v>43334.821659340276</v>
+      </c>
+      <c r="B907" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E907" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F907" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G907" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J907" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="2">
+        <v>43334.821825335646</v>
+      </c>
+      <c r="B908" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E908" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F908" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G908" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J908" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2">
+        <v>43334.82208378472</v>
+      </c>
+      <c r="B909" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E909" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F909" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G909" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J909" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2">
+        <v>43334.82224685185</v>
+      </c>
+      <c r="B910" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E910" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F910" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G910" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J910" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2">
+        <v>43334.822413622685</v>
+      </c>
+      <c r="B911" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E911" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F911" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G911" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J911" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2">
+        <v>43334.82261415509</v>
+      </c>
+      <c r="B912" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E912" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F912" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G912" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H912" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J912" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2">
+        <v>43334.82288021991</v>
+      </c>
+      <c r="B913" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E913" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F913" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G913" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J913" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2">
+        <v>43334.8232258912</v>
+      </c>
+      <c r="B914" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E914" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F914" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G914" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H914" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J914" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2">
+        <v>43334.82363608797</v>
+      </c>
+      <c r="B915" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E915" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F915" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G915" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H915" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J915" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2">
+        <v>43334.82396466435</v>
+      </c>
+      <c r="B916" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E916" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F916" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G916" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H916" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J916" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2">
+        <v>43334.824161111115</v>
+      </c>
+      <c r="B917" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E917" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F917" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="G917" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J917" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2">
+        <v>43334.824532708335</v>
+      </c>
+      <c r="B918" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E918" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F918" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G918" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I918" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J918" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2">
+        <v>43334.824791203704</v>
+      </c>
+      <c r="B919" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E919" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F919" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G919" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I919" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J919" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2">
+        <v>43334.824983750004</v>
+      </c>
+      <c r="B920" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E920" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F920" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G920" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J920" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2">
+        <v>43334.82516420139</v>
+      </c>
+      <c r="B921" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E921" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F921" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G921" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J921" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2">
+        <v>43334.82539297454</v>
+      </c>
+      <c r="B922" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E922" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F922" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G922" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H922" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J922" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2">
+        <v>43334.82560804398</v>
+      </c>
+      <c r="B923" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E923" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F923" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G923" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H923" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J923" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2">
+        <v>43334.825807824076</v>
+      </c>
+      <c r="B924" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E924" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F924" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G924" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H924" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J924" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2">
+        <v>43334.826047361115</v>
+      </c>
+      <c r="B925" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E925" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F925" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G925" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H925" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J925" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2">
+        <v>43334.82625023148</v>
+      </c>
+      <c r="B926" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E926" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F926" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G926" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H926" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J926" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2">
+        <v>43334.82651813657</v>
+      </c>
+      <c r="B927" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E927" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F927" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G927" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H927" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J927" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2">
+        <v>43334.82674474537</v>
+      </c>
+      <c r="B928" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E928" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F928" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G928" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H928" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J928" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2">
+        <v>43334.827010925925</v>
+      </c>
+      <c r="B929" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E929" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F929" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G929" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J929" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2">
+        <v>43334.82734118056</v>
+      </c>
+      <c r="B930" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E930" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F930" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G930" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J930" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2">
+        <v>43334.8276644213</v>
+      </c>
+      <c r="B931" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E931" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F931" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G931" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="H931" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J931" s="1">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2">
+        <v>43334.827888831016</v>
+      </c>
+      <c r="B932" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E932" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F932" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G932" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H932" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J932" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2">
+        <v>43334.82810046297</v>
+      </c>
+      <c r="B933" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E933" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F933" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G933" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H933" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J933" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2">
+        <v>43334.82833899306</v>
+      </c>
+      <c r="B934" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E934" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F934" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G934" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="H934" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J934" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2">
+        <v>43334.82867697917</v>
+      </c>
+      <c r="B935" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E935" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F935" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G935" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H935" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J935" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2">
+        <v>43334.828964375</v>
+      </c>
+      <c r="B936" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E936" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F936" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G936" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H936" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J936" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/Data/Season2/Encounters - Quadrats (Responses).xlsx
+++ b/Data/Season2/Encounters - Quadrats (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="55">
   <si>
     <t>Timestamp</t>
   </si>
@@ -186,6 +186,12 @@
   <si>
     <t>Shellfish, Tiny dead shells</t>
   </si>
+  <si>
+    <t>Mostly all small juveniles</t>
+  </si>
+  <si>
+    <t>Vegetation, Shellfish</t>
+  </si>
 </sst>
 </file>
 
@@ -25209,6 +25215,3142 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="937">
+      <c r="A937" s="2">
+        <v>43340.58715706019</v>
+      </c>
+      <c r="B937" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E937" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F937" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G937" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H937" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J937" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2">
+        <v>43340.58731724537</v>
+      </c>
+      <c r="B938" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E938" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F938" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G938" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J938" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2">
+        <v>43340.58747475695</v>
+      </c>
+      <c r="B939" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E939" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F939" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G939" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J939" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2">
+        <v>43340.58779603009</v>
+      </c>
+      <c r="B940" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E940" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F940" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G940" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H940" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J940" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2">
+        <v>43340.58801715278</v>
+      </c>
+      <c r="B941" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E941" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F941" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G941" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J941" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2">
+        <v>43340.58821262731</v>
+      </c>
+      <c r="B942" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E942" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F942" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G942" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H942" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J942" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2">
+        <v>43340.588377962966</v>
+      </c>
+      <c r="B943" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E943" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F943" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G943" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J943" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2">
+        <v>43340.58863677083</v>
+      </c>
+      <c r="B944" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E944" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F944" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G944" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H944" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J944" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="2">
+        <v>43340.58885402778</v>
+      </c>
+      <c r="B945" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E945" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F945" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G945" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H945" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J945" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2">
+        <v>43340.58903811342</v>
+      </c>
+      <c r="B946" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E946" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F946" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G946" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H946" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J946" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="2">
+        <v>43340.58922501157</v>
+      </c>
+      <c r="B947" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E947" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F947" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G947" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J947" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="2">
+        <v>43340.58936790509</v>
+      </c>
+      <c r="B948" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E948" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F948" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G948" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J948" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2">
+        <v>43340.58962067129</v>
+      </c>
+      <c r="B949" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E949" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F949" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G949" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J949" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="2">
+        <v>43340.58978708333</v>
+      </c>
+      <c r="B950" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E950" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F950" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G950" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J950" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="2">
+        <v>43340.58999548611</v>
+      </c>
+      <c r="B951" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E951" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F951" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G951" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H951" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J951" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="2">
+        <v>43340.59018762731</v>
+      </c>
+      <c r="B952" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E952" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F952" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G952" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H952" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J952" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2">
+        <v>43340.590330046296</v>
+      </c>
+      <c r="B953" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E953" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F953" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G953" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J953" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2">
+        <v>43340.59049648148</v>
+      </c>
+      <c r="B954" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E954" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F954" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G954" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J954" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="2">
+        <v>43340.590682361115</v>
+      </c>
+      <c r="B955" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E955" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F955" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G955" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H955" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J955" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="2">
+        <v>43340.59086513889</v>
+      </c>
+      <c r="B956" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E956" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F956" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G956" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J956" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="2">
+        <v>43340.59099226852</v>
+      </c>
+      <c r="B957" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E957" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F957" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G957" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J957" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2">
+        <v>43340.591150196764</v>
+      </c>
+      <c r="B958" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E958" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F958" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G958" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J958" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2">
+        <v>43340.591313275465</v>
+      </c>
+      <c r="B959" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E959" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F959" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G959" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J959" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2">
+        <v>43340.59155135417</v>
+      </c>
+      <c r="B960" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E960" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F960" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G960" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J960" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="2">
+        <v>43340.591726493054</v>
+      </c>
+      <c r="B961" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E961" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F961" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G961" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J961" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2">
+        <v>43340.59192832176</v>
+      </c>
+      <c r="B962" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E962" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F962" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G962" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H962" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J962" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2">
+        <v>43340.59206446759</v>
+      </c>
+      <c r="B963" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E963" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F963" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G963" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J963" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="2">
+        <v>43340.59223761574</v>
+      </c>
+      <c r="B964" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E964" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F964" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G964" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H964" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J964" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2">
+        <v>43340.592442002315</v>
+      </c>
+      <c r="B965" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E965" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F965" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G965" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H965" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J965" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="2">
+        <v>43340.59297362268</v>
+      </c>
+      <c r="B966" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E966" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F966" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G966" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="H966" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J966" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="2">
+        <v>43340.59312355324</v>
+      </c>
+      <c r="B967" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E967" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F967" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G967" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J967" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="2">
+        <v>43340.59338155093</v>
+      </c>
+      <c r="B968" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E968" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F968" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G968" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J968" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="2">
+        <v>43340.59353063657</v>
+      </c>
+      <c r="B969" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E969" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F969" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G969" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J969" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2">
+        <v>43340.59386119213</v>
+      </c>
+      <c r="B970" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E970" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F970" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G970" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H970" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J970" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="2">
+        <v>43340.59406686343</v>
+      </c>
+      <c r="B971" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E971" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F971" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G971" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H971" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J971" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="2">
+        <v>43340.59433381945</v>
+      </c>
+      <c r="B972" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E972" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F972" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G972" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J972" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="2">
+        <v>43340.59452940972</v>
+      </c>
+      <c r="B973" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E973" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F973" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G973" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="H973" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J973" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K973" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="2">
+        <v>43340.59474659723</v>
+      </c>
+      <c r="B974" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E974" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F974" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G974" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H974" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J974" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K974" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="2">
+        <v>43340.5949309375</v>
+      </c>
+      <c r="B975" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E975" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F975" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G975" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H975" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J975" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K975" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="2">
+        <v>43340.59519099537</v>
+      </c>
+      <c r="B976" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E976" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F976" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G976" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="H976" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J976" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="K976" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="2">
+        <v>43340.59538611111</v>
+      </c>
+      <c r="B977" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E977" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F977" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G977" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H977" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J977" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="2">
+        <v>43340.59554112269</v>
+      </c>
+      <c r="B978" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E978" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F978" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G978" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J978" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="2">
+        <v>43340.59575582176</v>
+      </c>
+      <c r="B979" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E979" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F979" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G979" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H979" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J979" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="2">
+        <v>43340.59669895833</v>
+      </c>
+      <c r="B980" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E980" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F980" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G980" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H980" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J980" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="2">
+        <v>43340.59691699074</v>
+      </c>
+      <c r="B981" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E981" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F981" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G981" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H981" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J981" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="2">
+        <v>43340.597144479165</v>
+      </c>
+      <c r="B982" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E982" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F982" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G982" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H982" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J982" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="2">
+        <v>43340.59737238426</v>
+      </c>
+      <c r="B983" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E983" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F983" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G983" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H983" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J983" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="2">
+        <v>43340.59764797454</v>
+      </c>
+      <c r="B984" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E984" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F984" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G984" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H984" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J984" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="2">
+        <v>43340.59788527778</v>
+      </c>
+      <c r="B985" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E985" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F985" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G985" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H985" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J985" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="2">
+        <v>43340.59808953704</v>
+      </c>
+      <c r="B986" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E986" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F986" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G986" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H986" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J986" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="2">
+        <v>43340.59836684028</v>
+      </c>
+      <c r="B987" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E987" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F987" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G987" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H987" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J987" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2">
+        <v>43340.59853524306</v>
+      </c>
+      <c r="B988" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E988" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F988" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G988" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J988" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="2">
+        <v>43340.59873219907</v>
+      </c>
+      <c r="B989" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E989" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F989" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G989" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J989" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="2">
+        <v>43340.598870057875</v>
+      </c>
+      <c r="B990" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E990" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F990" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G990" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J990" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="2">
+        <v>43340.59960256945</v>
+      </c>
+      <c r="B991" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E991" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F991" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G991" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H991" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J991" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2">
+        <v>43340.59976938658</v>
+      </c>
+      <c r="B992" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E992" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F992" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G992" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H992" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J992" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="2">
+        <v>43340.59991476852</v>
+      </c>
+      <c r="B993" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E993" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F993" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G993" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H993" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J993" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2">
+        <v>43340.60009060185</v>
+      </c>
+      <c r="B994" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E994" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F994" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G994" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H994" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J994" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2">
+        <v>43340.60026293981</v>
+      </c>
+      <c r="B995" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E995" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F995" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G995" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H995" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J995" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2">
+        <v>43340.60041158565</v>
+      </c>
+      <c r="B996" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E996" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F996" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G996" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J996" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2">
+        <v>43340.60058774306</v>
+      </c>
+      <c r="B997" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E997" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F997" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G997" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H997" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J997" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="2">
+        <v>43340.600761215275</v>
+      </c>
+      <c r="B998" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D998" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E998" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F998" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G998" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J998" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="2">
+        <v>43340.600883437495</v>
+      </c>
+      <c r="B999" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D999" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E999" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F999" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G999" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J999" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2">
+        <v>43340.601009351856</v>
+      </c>
+      <c r="B1000" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1000" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1000" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F1000" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G1000" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1000" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2">
+        <v>43340.60119707176</v>
+      </c>
+      <c r="B1001" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1001" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G1001" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1001" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2">
+        <v>43340.601325324074</v>
+      </c>
+      <c r="B1002" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1002" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F1002" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G1002" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1002" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2">
+        <v>43340.60149519676</v>
+      </c>
+      <c r="B1003" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1003" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F1003" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G1003" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1003" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2">
+        <v>43340.601650763885</v>
+      </c>
+      <c r="B1004" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1004" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F1004" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G1004" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1004" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2">
+        <v>43340.60187722222</v>
+      </c>
+      <c r="B1005" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1005" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1005" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G1005" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H1005" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1005" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2">
+        <v>43340.602077118056</v>
+      </c>
+      <c r="B1006" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1006" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1006" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G1006" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1006" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2">
+        <v>43340.60221354167</v>
+      </c>
+      <c r="B1007" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1007" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1007" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G1007" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1007" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2">
+        <v>43340.602353344904</v>
+      </c>
+      <c r="B1008" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1008" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1008" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G1008" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1008" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2">
+        <v>43340.602544699075</v>
+      </c>
+      <c r="B1009" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1009" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1009" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G1009" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H1009" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1009" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2">
+        <v>43340.602795983796</v>
+      </c>
+      <c r="B1010" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1010" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1010" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G1010" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H1010" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1010" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2">
+        <v>43340.602946921295</v>
+      </c>
+      <c r="B1011" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1011" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1011" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G1011" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1011" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2">
+        <v>43340.603135972226</v>
+      </c>
+      <c r="B1012" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1012" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1012" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G1012" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="H1012" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1012" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2">
+        <v>43340.60333467592</v>
+      </c>
+      <c r="B1013" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1013" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1013" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G1013" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H1013" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1013" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2">
+        <v>43340.60370013889</v>
+      </c>
+      <c r="B1014" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1014" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1014" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G1014" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1014" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2">
+        <v>43340.603969641204</v>
+      </c>
+      <c r="B1015" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1015" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G1015" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1015" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2">
+        <v>43340.60421097222</v>
+      </c>
+      <c r="B1016" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1016" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1016" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G1016" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H1016" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1016" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2">
+        <v>43340.604372974536</v>
+      </c>
+      <c r="B1017" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1017" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1017" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G1017" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H1017" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1017" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2">
+        <v>43340.60460490741</v>
+      </c>
+      <c r="B1018" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1018" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G1018" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H1018" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1018" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2">
+        <v>43340.60475841435</v>
+      </c>
+      <c r="B1019" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1019" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1019" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G1019" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1019" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2">
+        <v>43340.604943541664</v>
+      </c>
+      <c r="B1020" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1020" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G1020" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H1020" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1020" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2">
+        <v>43340.60514625</v>
+      </c>
+      <c r="B1021" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1021" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1021" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G1021" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H1021" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1021" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2">
+        <v>43340.60535344908</v>
+      </c>
+      <c r="B1022" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1022" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1022" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G1022" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H1022" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1022" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2">
+        <v>43340.60551957176</v>
+      </c>
+      <c r="B1023" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1023" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1023" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G1023" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H1023" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1023" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2">
+        <v>43340.6057516088</v>
+      </c>
+      <c r="B1024" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1024" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1024" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G1024" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="H1024" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1024" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2">
+        <v>43340.60595650463</v>
+      </c>
+      <c r="B1025" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1025" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1025" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G1025" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H1025" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1025" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2">
+        <v>43340.6061331713</v>
+      </c>
+      <c r="B1026" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1026" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F1026" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G1026" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H1026" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1026" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2">
+        <v>43340.60634993056</v>
+      </c>
+      <c r="B1027" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1027" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1027" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G1027" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1027" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2">
+        <v>43340.606494548614</v>
+      </c>
+      <c r="B1028" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1028" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1028" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G1028" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1028" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2">
+        <v>43340.606639606485</v>
+      </c>
+      <c r="B1029" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1029" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1029" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G1029" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1029" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2">
+        <v>43340.606812743055</v>
+      </c>
+      <c r="B1030" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1030" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1030" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G1030" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H1030" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1030" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2">
+        <v>43340.6069546875</v>
+      </c>
+      <c r="B1031" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1031" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1031" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G1031" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1031" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2">
+        <v>43340.607082789356</v>
+      </c>
+      <c r="B1032" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1032" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1032" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G1032" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1032" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2">
+        <v>43340.607243148144</v>
+      </c>
+      <c r="B1033" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1033" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1033" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G1033" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1033" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2">
+        <v>43340.60742659723</v>
+      </c>
+      <c r="B1034" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1034" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1034" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G1034" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1034" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2">
+        <v>43340.60758372685</v>
+      </c>
+      <c r="B1035" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1035" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1035" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G1035" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1035" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2">
+        <v>43340.608008379626</v>
+      </c>
+      <c r="B1036" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1036" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1036" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G1036" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H1036" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1036" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2">
+        <v>43340.60816866899</v>
+      </c>
+      <c r="B1037" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1037" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1037" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G1037" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H1037" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1037" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2">
+        <v>43340.60836482639</v>
+      </c>
+      <c r="B1038" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1038" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1038" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G1038" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H1038" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1038" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2">
+        <v>43340.6085387037</v>
+      </c>
+      <c r="B1039" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1039" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1039" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G1039" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H1039" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1039" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2">
+        <v>43340.60878365741</v>
+      </c>
+      <c r="B1040" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1040" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G1040" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H1040" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1040" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2">
+        <v>43340.6089775463</v>
+      </c>
+      <c r="B1041" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1041" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="G1041" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H1041" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1041" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2">
+        <v>43340.60916017361</v>
+      </c>
+      <c r="B1042" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1042" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G1042" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1042" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2">
+        <v>43340.6094209375</v>
+      </c>
+      <c r="B1043" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1043" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1043" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G1043" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H1043" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1043" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2">
+        <v>43340.609593298606</v>
+      </c>
+      <c r="B1044" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1044" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1044" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G1044" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H1044" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1044" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2">
+        <v>43340.609742615736</v>
+      </c>
+      <c r="B1045" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1045" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1045" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="G1045" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1045" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2">
+        <v>43340.60990005787</v>
+      </c>
+      <c r="B1046" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1046" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G1046" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H1046" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1046" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2">
+        <v>43340.61009918981</v>
+      </c>
+      <c r="B1047" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1047" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G1047" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H1047" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1047" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2">
+        <v>43340.6102884838</v>
+      </c>
+      <c r="B1048" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1048" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G1048" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H1048" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1048" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2">
+        <v>43340.610432800924</v>
+      </c>
+      <c r="B1049" s="3">
+        <v>43334.0</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1049" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G1049" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J1049" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
